--- a/FlowChart_CC_UnitTests_BlackboxTests.xlsx
+++ b/FlowChart_CC_UnitTests_BlackboxTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gary\Documents\college\year 3\Software Quality Testing\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B4097-50FA-469C-9991-7ABB8A43F384}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252959B-7480-469A-971D-88FEC6718824}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8BBE373-386B-417D-A696-0CB2B345258F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Test_01</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Sheet 3: Equivalence Classes / Test Cases</t>
+  </si>
+  <si>
+    <t>Our Github Repo: https://github.com/s00171995/SoftwareQ-T</t>
   </si>
 </sst>
 </file>
@@ -459,13 +462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3400425</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7019925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -522,13 +525,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3448050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6715125</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -585,13 +588,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4048125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6124575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -662,13 +665,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5207794</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5210175</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -718,13 +721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5081588</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5086350</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -774,13 +777,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6124575</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8810625</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -830,13 +833,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5038725</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5086350</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -886,13 +889,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8324851</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8782051</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -956,13 +959,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7296151</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7753351</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1026,13 +1029,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5162551</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5619751</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1096,13 +1099,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12668251</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13125451</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1166,13 +1169,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3448050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1236,13 +1239,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5219700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5676900</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1306,13 +1309,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4000500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6076950</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1403,13 +1406,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4010025</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6086475</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1474,13 +1477,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3152776</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4000500</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1530,13 +1533,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5038725</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5048250</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1586,13 +1589,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2981326</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4010025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1642,13 +1645,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4991101</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5048250</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1698,13 +1701,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5219700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5676900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1768,13 +1771,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3371850</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3829050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1838,13 +1841,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>790576</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3076576</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1906,13 +1909,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3819526</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6162676</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1974,13 +1977,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>962026</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3248026</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2042,13 +2045,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8810625</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10887075</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2119,13 +2122,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8810625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10887075</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2216,13 +2219,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9848850</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9848850</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2272,13 +2275,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8162925</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8810625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2328,13 +2331,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6467476</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8258175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2396,13 +2399,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8820150</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10896600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2467,13 +2470,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8686801</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>11029951</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2535,13 +2538,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6953251</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8696325</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2603,13 +2606,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8601075</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8820150</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2659,13 +2662,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9858375</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9858376</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2715,13 +2718,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9848850</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9858375</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2771,13 +2774,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8753476</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9210676</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2841,13 +2844,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10058401</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10515601</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2911,13 +2914,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10077451</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10534651</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2981,13 +2984,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9934576</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10391776</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3051,13 +3054,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10887075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13792201</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3107,13 +3110,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12620626</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>14963776</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3175,13 +3178,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5486400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7562850</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3246,13 +3249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6524625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6562726</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3302,13 +3305,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7639050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7729538</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3357,13 +3360,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9829800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9858376</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3412,13 +3415,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13668375</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13683854</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3465,13 +3468,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4972050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4991101</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3520,13 +3523,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1838326</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3575,13 +3578,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6524625</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13706476</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3630,13 +3633,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6524625</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3685,13 +3688,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3738,13 +3741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1057276</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3793,13 +3796,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8096251</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>10439401</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3868,13 +3871,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7562850</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9267826</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3924,13 +3927,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6524625</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6524626</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3980,13 +3983,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5848350</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6305550</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4050,13 +4053,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8181975</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8639175</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4120,13 +4123,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5353051</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7696201</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4183,13 +4186,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7587854</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9159479</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4239,13 +4242,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6400800</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6416279</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4295,13 +4298,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4591050</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8210550</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4358,7 +4361,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8658225</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4457700" cy="1470146"/>
@@ -4841,10 +4844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F1D746-DDB4-4B42-BB3F-398466B07FF1}">
-  <dimension ref="A2:B82"/>
+  <dimension ref="A2:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4867,68 +4870,73 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>1</v>
       </c>
     </row>
